--- a/data/Promises_CT_BJD67_20220407150406.xlsx
+++ b/data/Promises_CT_BJD67_20220407150406.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projectCNHi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CNHi\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA8EE6B8-92DC-46D1-8D0B-D99282A5648F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7AE0DAD-46F4-4DDB-B132-B9D04362356D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="2280" windowWidth="15000" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Promises_CT_BJD67_2022040715040" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="240">
   <si>
     <t>DESCRIPTION</t>
   </si>
@@ -746,6 +746,9 @@
   </si>
   <si>
     <t>QTY TYPE</t>
+  </si>
+  <si>
+    <t>2022.05.20</t>
   </si>
 </sst>
 </file>
@@ -1598,8 +1601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1685,9 +1688,6 @@
       <c r="H2" t="s">
         <v>199</v>
       </c>
-      <c r="I2" t="s">
-        <v>199</v>
-      </c>
       <c r="J2">
         <v>34</v>
       </c>
@@ -1726,9 +1726,6 @@
       <c r="H3" t="s">
         <v>199</v>
       </c>
-      <c r="I3" t="s">
-        <v>199</v>
-      </c>
       <c r="J3">
         <v>78</v>
       </c>
@@ -2055,7 +2052,7 @@
         <v>202</v>
       </c>
       <c r="I11" t="s">
-        <v>202</v>
+        <v>239</v>
       </c>
       <c r="J11" s="2">
         <v>287</v>
